--- a/FIGS_Automations/FIGS_Automations/FIGS_Automations/backup/Account_Services.xlsx
+++ b/FIGS_Automations/FIGS_Automations/FIGS_Automations/backup/Account_Services.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FIGS_Automations\FIGS_Automations\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7623B2D4-7CDC-496D-9F63-D0A4540A153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Enquiry" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Fund Transfer" sheetId="6" r:id="rId5"/>
     <sheet name="AadharLink" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="834">
   <si>
     <t>0</t>
   </si>
@@ -1525,183 +1524,6 @@
     <t>Pass : 08/10/2025 12:53:04 pm</t>
   </si>
   <si>
-    <t>Pass : 08/10/2025 2:41:13 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:14 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:15 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:16 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:17 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:19 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:29 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:41:30 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:30 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:35 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:45 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:41:47 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:41:59 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:41:59 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:00 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:01 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:13 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:19 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:29 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:42:30 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:30 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:34 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:45 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:42:46 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:42:59 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:00 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:01 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:12 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:23 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:33 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:43:34 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:34 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:43:40 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:43:48 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 2:43:49 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 2:44:12 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 3:00:15 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:15 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:16 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:17 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:28 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:39 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:49 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 3:00:49 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:50 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:00:55 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:01:05 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 3:01:06 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:01:29 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:02:12 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:02:24 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:02:25 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 3:02:25 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:02:37 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:02:47 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 3:02:48 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:02:48 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:03:00 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:03:23 pm</t>
-  </si>
-  <si>
     <t>Pass : 08/10/2025 3:07:05 pm</t>
   </si>
   <si>
@@ -1720,18 +1542,6 @@
     <t>Pass : 08/10/2025 3:07:44 pm</t>
   </si>
   <si>
-    <t>Fail : 08/10/2025 3:07:45 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:08:00 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 3:08:10 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 3:08:11 pm</t>
-  </si>
-  <si>
     <t>Pass : 08/10/2025 3:08:11 pm</t>
   </si>
   <si>
@@ -1915,102 +1725,6 @@
     <t>Fail : 09/10/2025 11:19:24 am</t>
   </si>
   <si>
-    <t>Pass : 16/10/2025 12:37:51 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:37:52 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:37:53 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:03 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:13 pm</t>
-  </si>
-  <si>
-    <t>Fail : 16/10/2025 12:38:14 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:14 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:16 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:28 pm</t>
-  </si>
-  <si>
-    <t>Fail : 16/10/2025 12:38:50 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:50 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:38:51 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:39:02 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:39:28 pm</t>
-  </si>
-  <si>
-    <t>Fail : 16/10/2025 12:39:28 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:39:29 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:39:30 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:39:45 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:40:18 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:40:19 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:40:30 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:40:40 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:40:51 pm</t>
-  </si>
-  <si>
-    <t>Fail : 16/10/2025 12:40:51 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:40:54 pm</t>
-  </si>
-  <si>
-    <t>Fail : 16/10/2025 12:41:02 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:41:25 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:44:10 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:44:11 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:44:12 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:44:22 pm</t>
-  </si>
-  <si>
-    <t>Pass : 16/10/2025 12:44:32 pm</t>
-  </si>
-  <si>
     <t>Fail : 16/10/2025 12:44:33 pm</t>
   </si>
   <si>
@@ -2056,9 +1770,6 @@
     <t>Fail : 16/10/2025 12:45:56 pm</t>
   </si>
   <si>
-    <t>Fail : 16/10/2025 12:46:18 pm</t>
-  </si>
-  <si>
     <t>Pass : 16/10/2025 12:46:18 pm</t>
   </si>
   <si>
@@ -2096,12 +1807,756 @@
   </si>
   <si>
     <t>Pass : 16/10/2025 12:47:38 pm</t>
+  </si>
+  <si>
+    <t>Pass : 16/10/2025 12:55:44 pm</t>
+  </si>
+  <si>
+    <t>Pass : 16/10/2025 12:55:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 16/10/2025 12:55:55 pm</t>
+  </si>
+  <si>
+    <t>Fail : 16/10/2025 12:56:09 pm</t>
+  </si>
+  <si>
+    <t>Fail : 16/10/2025 12:56:20 pm</t>
+  </si>
+  <si>
+    <t>Valid data '31350906' is Entered/Selected in the focused field.</t>
+  </si>
+  <si>
+    <t>Pass : 28/10/2025 5:43:56 pm</t>
+  </si>
+  <si>
+    <t>Fail : 28/10/2025 5:45:19 pm</t>
+  </si>
+  <si>
+    <t>Valid Data is Entered 'SBI'.</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 3:45:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 3:45:20 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 3:45:22 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 3:45:23 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:51:54 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 4:52:17 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:52:17 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:52:18 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:52:19 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:52:29 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:52:40 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:27 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:28 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:29 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:43 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 4:54:44 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:44 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 4:54:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:35:31 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:35:32 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:35:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:35:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:35:40 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:35:50 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:38:44 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:38:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:38:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:38:49 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:38:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:39:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:39:02 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:39:10 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:39:32 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:39:32 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:39:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:39:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:06 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:13 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:40:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:36 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:37 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:48 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:40:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:41:09 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:41:12 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:41:26 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:41:58 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:36 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:41 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:51 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:52:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:52:54 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:01 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:53:23 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:24 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:25 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:36 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:56 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:53:57 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:54:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:54:07 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:54:08 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:54:40 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:55:02 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 5:55:22 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:59:55 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 5:59:56 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:00:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:04:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:04:53 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:04:54 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:04:57 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:07 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:08 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:10 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:18 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 6:05:40 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:41 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:42 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:05:53 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:02 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:16 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:17 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:18 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:25 pm</t>
+  </si>
+  <si>
+    <t>Fail : 04/11/2025 6:06:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:48 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:49 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:06:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:07:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:07:10 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:07:20 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:07:21 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:07:26 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:07:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 04/11/2025 6:08:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:11:58 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:11:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:16 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:18 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:29 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:12:51 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:51 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:12:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:13:03 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:14:25 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:14:41 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:14:42 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:14:49 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:15:11 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:12 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:13 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:14 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:24 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:49 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:15:55 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:06 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:07 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:08 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:26 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:17:26 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:29 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:17:36 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:17:37 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:17:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:01 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:12 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:19 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:31 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:18:40 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:18:41 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:19:03 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:16 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:26 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:37 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:42 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:19:49 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:19:50 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:20:22 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:46:55 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:46:56 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:46:57 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:14 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:47:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:17 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:47:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:45 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:47:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:58 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:47:58 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:47:59 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:47:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:11 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:14 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:16 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:19 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:29 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:30 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:48:32 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:49:18 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:49:19 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:49:23 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:49:33 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:49:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:49:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:49:35 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:49:38 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:50:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:50:01 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:50:12 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:50:25 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:21 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:22 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:23 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:27 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:37 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:51:38 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:38 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:51:40 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:51:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:52:07 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:52:08 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:52:09 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:53:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:53:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:53:48 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:53:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:02 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:54:02 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:03 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:12 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:54:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:36 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:54:57 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:55:08 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:55:12 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:55:21 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:55:22 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:55:55 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:55:56 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:55:57 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:56:07 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:56:17 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:56:18 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:56:19 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:56:27 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:56:50 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:56:50 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:57:03 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:57:13 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:57:14 pm</t>
+  </si>
+  <si>
+    <t>Fail : 05/11/2025 4:57:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 05/11/2025 4:57:48 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2413,7 +2868,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2691,10 +3146,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2815,17 +3270,17 @@
         <v>29</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>555</v>
+        <v>785</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="13" t="str">
         <f>LEFT(J3,4)</f>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:50:00 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2850,17 +3305,17 @@
         <v>29</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>556</v>
+        <v>785</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="13" t="str">
         <f t="shared" ref="L4:L12" si="0">LEFT(J4,4)</f>
-        <v>Fail</v>
+        <v>Pass : 05/11/2025 4:50:00 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2887,17 +3342,17 @@
         <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>557</v>
+        <v>786</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:50:01 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2925,14 +3380,14 @@
         <v>47</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>557</v>
+        <v>787</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:50:12 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2960,14 +3415,14 @@
         <v>47</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>558</v>
+        <v>780</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:49:33 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2999,14 +3454,14 @@
         <v>75</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>559</v>
+        <v>781</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Fail : 05/11/2025 4:49:34 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3034,14 +3489,14 @@
         <v>47</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>560</v>
+        <v>782</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:49:34 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3066,17 +3521,17 @@
         <v>29</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Pass : 05/11/2025 4:49:35 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3101,17 +3556,17 @@
         <v>29</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>323</v>
+        <v>544</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>562</v>
+        <v>788</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Fail : 05/11/2025 4:50:25 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3136,17 +3591,17 @@
         <v>29</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>550</v>
+        <v>785</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:50:00 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3940,17 +4395,17 @@
         <v>29</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>75</v>
+        <v>544</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>551</v>
+        <v>768</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Fail</v>
+        <v>Fail : 05/11/2025 4:47:59 pm</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3975,17 +4430,17 @@
         <v>29</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>552</v>
+        <v>768</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>Fail : 05/11/2025 4:47:59 pm</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4010,17 +4465,17 @@
         <v>29</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>65</v>
+        <v>544</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>553</v>
+        <v>768</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>Fail : 05/11/2025 4:47:59 pm</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -4045,17 +4500,17 @@
         <v>29</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>554</v>
+        <v>768</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>Fail : 05/11/2025 4:47:59 pm</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4083,14 +4538,14 @@
         <v>323</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>555</v>
+        <v>769</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:48:11 pm</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4424,7 +4879,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E6:E12 E32:E38 E16:E23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E6:E12 E32:E38 E16:E23">
       <formula1>"I Agree, Disagree"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4433,11 +4888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,7 +4908,7 @@
     <col min="9" max="9" customWidth="true" style="7" width="51.85546875"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="26.42578125"/>
     <col min="11" max="11" customWidth="true" style="7" width="10.28515625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="7" width="11.140625"/>
+    <col min="12" max="12" customWidth="true" style="7" width="32.0"/>
     <col min="13" max="16384" style="7" width="9.140625"/>
   </cols>
   <sheetData>
@@ -4560,14 +5015,14 @@
         <v>132</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>542</v>
+        <v>828</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="13" t="str">
         <f>LEFT(J3,4)</f>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:56:50 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4595,14 +5050,14 @@
         <v>75</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>543</v>
+        <v>827</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="13" t="str">
         <f t="shared" ref="L4:L50" si="0">LEFT(J4,4)</f>
-        <v>Fail</v>
+        <v>Fail : 05/11/2025 4:56:50 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4632,14 +5087,14 @@
         <v>144</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>544</v>
+        <v>829</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:57:03 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4669,14 +5124,14 @@
         <v>47</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>544</v>
+        <v>829</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:57:03 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4704,14 +5159,14 @@
         <v>47</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>545</v>
+        <v>830</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:57:13 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4736,17 +5191,17 @@
         <v>29</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>546</v>
+        <v>831</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Pass : 05/11/2025 4:57:14 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4778,14 +5233,14 @@
         <v>47</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>547</v>
+        <v>831</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:57:14 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4810,17 +5265,17 @@
         <v>29</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>548</v>
+        <v>832</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Fail : 05/11/2025 4:57:15 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4848,14 +5303,14 @@
         <v>323</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>549</v>
+        <v>833</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:57:48 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4883,14 +5338,14 @@
         <v>70</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>540</v>
+        <v>826</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:56:27 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4918,14 +5373,14 @@
         <v>75</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>527</v>
+        <v>810</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Fail : 05/11/2025 4:54:34 pm</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4992,14 +5447,14 @@
         <v>95</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>528</v>
+        <v>811</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:35 pm</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5029,14 +5484,14 @@
         <v>42</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>529</v>
+        <v>812</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:36 pm</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5064,14 +5519,14 @@
         <v>36</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>530</v>
+        <v>812</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:36 pm</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -5103,14 +5558,14 @@
         <v>102</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>530</v>
+        <v>812</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:36 pm</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5140,14 +5595,14 @@
         <v>36</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>530</v>
+        <v>812</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:36 pm</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5179,14 +5634,14 @@
         <v>42</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>531</v>
+        <v>813</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:47 pm</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -5216,14 +5671,14 @@
         <v>36</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>531</v>
+        <v>813</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:47 pm</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -5255,14 +5710,14 @@
         <v>118</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>531</v>
+        <v>813</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:47 pm</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -5290,14 +5745,14 @@
         <v>47</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>532</v>
+        <v>814</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:54:57 pm</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -5325,17 +5780,17 @@
         <v>47</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>533</v>
+        <v>815</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:55:08 pm</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>184</v>
       </c>
@@ -5349,7 +5804,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>56</v>
@@ -5361,17 +5816,17 @@
         <v>29</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>534</v>
+        <v>815</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Pass : 05/11/2025 4:55:08 pm</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5399,14 +5854,14 @@
         <v>47</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>535</v>
+        <v>815</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:55:08 pm</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -5434,14 +5889,14 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>536</v>
+        <v>816</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:55:12 pm</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5469,14 +5924,14 @@
         <v>70</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>537</v>
+        <v>817</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:55:21 pm</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5504,14 +5959,14 @@
         <v>75</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>538</v>
+        <v>818</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Fail : 05/11/2025 4:55:22 pm</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5539,14 +5994,14 @@
         <v>323</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>539</v>
+        <v>819</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 05/11/2025 4:55:55 pm</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -5779,7 +6234,7 @@
         <v>54</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>56</v>
@@ -5931,17 +6386,17 @@
         <v>29</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>541</v>
+        <v>827</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Fail : 05/11/2025 4:56:50 pm</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6143,7 +6598,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>56</v>
@@ -6275,7 +6730,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35:E41 E7:E13 E23:E30 E45:E50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E30 E7:E13 E38:E41 E23:E24 E35:E36 E45:E46 E48:E50">
       <formula1>"I Agree, Disagree"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6284,11 +6739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6411,13 +6866,13 @@
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>621</v>
+        <v>770</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>621</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6445,14 +6900,14 @@
         <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>622</v>
+        <v>771</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="13" t="str">
         <f t="shared" ref="L4:L52" si="0">LEFT(J4,4)</f>
-        <v>Pass : 16/10/2025 12:37:52 pm</v>
+        <v>Pass : 05/11/2025 4:48:15 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6482,14 +6937,14 @@
         <v>42</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>622</v>
+        <v>771</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:37:52 pm</v>
+        <v>Pass : 05/11/2025 4:48:15 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6519,14 +6974,14 @@
         <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>623</v>
+        <v>771</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:37:53 pm</v>
+        <v>Pass : 05/11/2025 4:48:15 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6558,14 +7013,14 @@
         <v>483</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>623</v>
+        <v>772</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:37:53 pm</v>
+        <v>Pass : 05/11/2025 4:48:16 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6593,14 +7048,14 @@
         <v>47</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>624</v>
+        <v>773</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:03 pm</v>
+        <v>Pass : 05/11/2025 4:48:19 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6628,17 +7083,17 @@
         <v>47</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>625</v>
+        <v>774</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:13 pm</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:48:29 pm</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>220</v>
       </c>
@@ -6652,7 +7107,7 @@
         <v>438</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>56</v>
@@ -6664,17 +7119,17 @@
         <v>29</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>626</v>
+        <v>775</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:38:14 pm</v>
+        <v>Pass : 05/11/2025 4:48:30 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6702,14 +7157,14 @@
         <v>47</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>627</v>
+        <v>775</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:14 pm</v>
+        <v>Pass : 05/11/2025 4:48:30 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6737,14 +7192,14 @@
         <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>628</v>
+        <v>776</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:16 pm</v>
+        <v>Pass : 05/11/2025 4:48:32 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6772,14 +7227,14 @@
         <v>70</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:28 pm</v>
+        <v>Pass : 05/11/2025 4:12:29 pm</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6807,14 +7262,14 @@
         <v>75</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:38:50 pm</v>
+        <v>Fail : 05/11/2025 4:12:51 pm</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6844,14 +7299,14 @@
         <v>30</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:50 pm</v>
+        <v>Pass : 05/11/2025 4:12:51 pm</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6881,14 +7336,14 @@
         <v>42</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:51 pm</v>
+        <v>Pass : 05/11/2025 4:12:52 pm</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6918,14 +7373,14 @@
         <v>36</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:51 pm</v>
+        <v>Pass : 05/11/2025 4:12:52 pm</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6957,17 +7412,17 @@
         <v>165</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:38:51 pm</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:12:52 pm</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>229</v>
       </c>
@@ -6992,17 +7447,17 @@
         <v>47</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:39:02 pm</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:13:03 pm</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>234</v>
       </c>
@@ -7027,17 +7482,17 @@
         <v>70</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="13" t="str">
         <f t="shared" ref="L20" si="1">LEFT(J20,4)</f>
-        <v>Pass : 16/10/2025 12:39:45 pm</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:14:49 pm</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>230</v>
       </c>
@@ -7062,17 +7517,17 @@
         <v>47</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:39:28 pm</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:14:41 pm</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>231</v>
       </c>
@@ -7086,7 +7541,7 @@
         <v>438</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>56</v>
@@ -7098,20 +7553,20 @@
         <v>29</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:39:28 pm</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:14:41 pm</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>232</v>
       </c>
@@ -7136,17 +7591,17 @@
         <v>47</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:39:29 pm</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:14:41 pm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>233</v>
       </c>
@@ -7171,14 +7626,14 @@
         <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:39:30 pm</v>
+        <v>Pass : 05/11/2025 4:14:42 pm</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7216,7 +7671,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>235</v>
       </c>
@@ -7238,20 +7693,20 @@
         <v>29</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:18 pm</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>Fail : 05/11/2025 4:15:11 pm</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -7278,17 +7733,17 @@
         <v>30</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:18 pm</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:15:12 pm</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>237</v>
       </c>
@@ -7315,17 +7770,17 @@
         <v>95</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:18 pm</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:15:12 pm</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>238</v>
       </c>
@@ -7352,17 +7807,17 @@
         <v>42</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:19 pm</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:15:13 pm</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>239</v>
       </c>
@@ -7391,14 +7846,14 @@
         <v>165</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:19 pm</v>
+        <v>Pass : 05/11/2025 4:15:13 pm</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7430,14 +7885,14 @@
         <v>102</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:19 pm</v>
+        <v>Pass : 05/11/2025 4:15:13 pm</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7467,14 +7922,14 @@
         <v>36</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:19 pm</v>
+        <v>Pass : 05/11/2025 4:15:14 pm</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7506,14 +7961,14 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:30 pm</v>
+        <v>Pass : 05/11/2025 4:15:24 pm</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7543,14 +7998,14 @@
         <v>36</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:30 pm</v>
+        <v>Pass : 05/11/2025 4:15:24 pm</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7582,14 +8037,14 @@
         <v>118</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:30 pm</v>
+        <v>Pass : 05/11/2025 4:15:24 pm</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7617,14 +8072,14 @@
         <v>47</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:40 pm</v>
+        <v>Pass : 05/11/2025 4:15:35 pm</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7652,14 +8107,14 @@
         <v>47</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:51 pm</v>
+        <v>Pass : 05/11/2025 4:15:45 pm</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7676,7 +8131,7 @@
         <v>438</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>56</v>
@@ -7688,17 +8143,17 @@
         <v>29</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:40:51 pm</v>
+        <v>Pass : 05/11/2025 4:15:45 pm</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7726,14 +8181,14 @@
         <v>47</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:51 pm</v>
+        <v>Pass : 05/11/2025 4:15:46 pm</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7761,14 +8216,14 @@
         <v>65</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:40:54 pm</v>
+        <v>Pass : 05/11/2025 4:15:49 pm</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7793,17 +8248,17 @@
         <v>29</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:41:02 pm</v>
+        <v>Pass : 05/11/2025 4:15:55 pm</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7831,14 +8286,14 @@
         <v>323</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:41:25 pm</v>
+        <v>Pass : 04/11/2025 6:08:05 pm</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8079,7 +8534,7 @@
         <v>438</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>56</v>
@@ -8211,7 +8666,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47:E52 E8:E14 E36:E42 E19:E26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E42 E11:E14 E23:E26 E8:E9 E19:E21 E36:E37 E47:E48 E50:E52">
       <formula1>"I Agree, Disagree"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8220,11 +8675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48:K57"/>
+    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8346,14 +8801,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="13" t="str">
         <f t="shared" ref="L3:L57" si="0">LEFT(J3,4)</f>
-        <v>Pass : 16/10/2025 12:44:10 pm</v>
+        <v>Pass : 05/11/2025 4:17:06 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8381,14 +8836,14 @@
         <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:10 pm</v>
+        <v>Pass : 05/11/2025 4:17:07 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8418,14 +8873,14 @@
         <v>42</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:11 pm</v>
+        <v>Pass : 05/11/2025 4:17:07 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8455,14 +8910,14 @@
         <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:11 pm</v>
+        <v>Pass : 05/11/2025 4:17:08 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8494,14 +8949,14 @@
         <v>165</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:11 pm</v>
+        <v>Pass : 05/11/2025 4:17:08 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8531,14 +8986,14 @@
         <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:11 pm</v>
+        <v>Pass : 05/11/2025 4:17:08 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8570,14 +9025,14 @@
         <v>459</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:12 pm</v>
+        <v>Pass : 05/11/2025 4:17:08 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8605,14 +9060,14 @@
         <v>47</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:22 pm</v>
+        <v>Pass : 05/11/2025 4:17:15 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8640,14 +9095,14 @@
         <v>47</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:32 pm</v>
+        <v>Pass : 05/11/2025 4:17:26 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8679,14 +9134,14 @@
         <v>75</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:44:33 pm</v>
+        <v>Fail : 05/11/2025 4:17:26 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8714,14 +9169,14 @@
         <v>47</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:33 pm</v>
+        <v>Pass : 05/11/2025 4:17:26 pm</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8749,14 +9204,14 @@
         <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:35 pm</v>
+        <v>Pass : 05/11/2025 4:17:29 pm</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8784,17 +9239,17 @@
         <v>70</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:44:45 pm</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:17:36 pm</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>280</v>
       </c>
@@ -8819,17 +9274,17 @@
         <v>75</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:44:46 pm</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Fail : 05/11/2025 4:17:37 pm</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>281</v>
       </c>
@@ -8854,17 +9309,17 @@
         <v>75</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:45:08 pm</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Fail : 05/11/2025 4:17:59 pm</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>282</v>
       </c>
@@ -8891,17 +9346,17 @@
         <v>30</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:09 pm</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:00 pm</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>283</v>
       </c>
@@ -8928,17 +9383,17 @@
         <v>42</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:09 pm</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:00 pm</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>284</v>
       </c>
@@ -8965,17 +9420,17 @@
         <v>36</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:09 pm</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:00 pm</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>285</v>
       </c>
@@ -9004,17 +9459,17 @@
         <v>165</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:09 pm</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:01 pm</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>286</v>
       </c>
@@ -9039,17 +9494,17 @@
         <v>47</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:20 pm</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:12 pm</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>287</v>
       </c>
@@ -9074,17 +9529,17 @@
         <v>70</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="13" t="str">
         <f t="shared" ref="L23" si="1">LEFT(J23,4)</f>
-        <v>Pass : 16/10/2025 12:45:30 pm</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:19 pm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>288</v>
       </c>
@@ -9109,17 +9564,17 @@
         <v>47</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:42 pm</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:31 pm</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>289</v>
       </c>
@@ -9133,7 +9588,7 @@
         <v>453</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>56</v>
@@ -9145,20 +9600,20 @@
         <v>29</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:45:43 pm</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:31 pm</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>290</v>
       </c>
@@ -9183,17 +9638,17 @@
         <v>47</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:43 pm</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:31 pm</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>291</v>
       </c>
@@ -9218,17 +9673,17 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:45 pm</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:33 pm</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>292</v>
       </c>
@@ -9253,17 +9708,17 @@
         <v>70</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:45:55 pm</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:18:40 pm</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>293</v>
       </c>
@@ -9288,17 +9743,17 @@
         <v>75</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:45:56 pm</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Fail : 05/11/2025 4:18:41 pm</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>294</v>
       </c>
@@ -9323,17 +9778,17 @@
         <v>30</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:18 pm</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:04 pm</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>294</v>
       </c>
@@ -9370,7 +9825,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>295</v>
       </c>
@@ -9397,17 +9852,17 @@
         <v>95</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:19 pm</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:04 pm</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>296</v>
       </c>
@@ -9434,17 +9889,17 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:19 pm</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:04 pm</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>297</v>
       </c>
@@ -9473,17 +9928,17 @@
         <v>165</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:19 pm</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:05 pm</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>298</v>
       </c>
@@ -9512,17 +9967,17 @@
         <v>102</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>671</v>
+        <v>746</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:20 pm</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:05 pm</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>299</v>
       </c>
@@ -9549,17 +10004,17 @@
         <v>36</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>671</v>
+        <v>746</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:20 pm</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:05 pm</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>300</v>
       </c>
@@ -9588,17 +10043,17 @@
         <v>42</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>672</v>
+        <v>747</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:30 pm</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:16 pm</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>301</v>
       </c>
@@ -9625,17 +10080,17 @@
         <v>36</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:31 pm</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:16 pm</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>302</v>
       </c>
@@ -9664,17 +10119,17 @@
         <v>118</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:31 pm</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:16 pm</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>303</v>
       </c>
@@ -9699,17 +10154,17 @@
         <v>47</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>674</v>
+        <v>748</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:41 pm</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:26 pm</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>304</v>
       </c>
@@ -9734,17 +10189,17 @@
         <v>47</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:51 pm</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:37 pm</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>305</v>
       </c>
@@ -9758,7 +10213,7 @@
         <v>438</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>56</v>
@@ -9770,20 +10225,20 @@
         <v>29</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>676</v>
+        <v>749</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:46:52 pm</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:37 pm</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>306</v>
       </c>
@@ -9808,17 +10263,17 @@
         <v>47</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>677</v>
+        <v>749</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:52 pm</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:37 pm</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>307</v>
       </c>
@@ -9843,17 +10298,17 @@
         <v>65</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:46:54 pm</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:42 pm</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>308</v>
       </c>
@@ -9878,17 +10333,17 @@
         <v>70</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>679</v>
+        <v>751</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L45" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:47:05 pm</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:19:49 pm</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>309</v>
       </c>
@@ -9913,17 +10368,17 @@
         <v>75</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>680</v>
+        <v>752</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 16/10/2025 12:47:06 pm</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Fail : 05/11/2025 4:19:50 pm</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>310</v>
       </c>
@@ -9948,17 +10403,17 @@
         <v>323</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>681</v>
+        <v>753</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 16/10/2025 12:47:38 pm</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>Pass : 05/11/2025 4:20:22 pm</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>311</v>
       </c>
@@ -9995,7 +10450,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>312</v>
       </c>
@@ -10034,7 +10489,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>238</v>
       </c>
@@ -10073,7 +10528,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>313</v>
       </c>
@@ -10112,7 +10567,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>314</v>
       </c>
@@ -10147,7 +10602,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>315</v>
       </c>
@@ -10182,7 +10637,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>316</v>
       </c>
@@ -10196,7 +10651,7 @@
         <v>438</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>56</v>
@@ -10221,7 +10676,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>317</v>
       </c>
@@ -10256,7 +10711,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>318</v>
       </c>
@@ -10291,7 +10746,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>319</v>
       </c>
@@ -10328,7 +10783,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E17 E52:E57 E40:E47 E22:E30" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E17 E43:E47 E26:E30 E10:E11 E22:E24 E40:E41 E52:E53 E55:E57">
       <formula1>"I Agree, Disagree"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10338,11 +10793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10464,7 +10919,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>31</v>
@@ -10499,7 +10954,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>595</v>
+        <v>532</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>31</v>
@@ -10536,7 +10991,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>596</v>
+        <v>533</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>31</v>
@@ -10573,7 +11028,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>31</v>
@@ -10612,7 +11067,7 @@
         <v>165</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>598</v>
+        <v>535</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>31</v>
@@ -10649,7 +11104,7 @@
         <v>36</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>31</v>
@@ -10686,7 +11141,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>600</v>
+        <v>537</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>31</v>
@@ -10721,7 +11176,7 @@
         <v>47</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>31</v>
@@ -10756,7 +11211,7 @@
         <v>47</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>31</v>
@@ -10779,8 +11234,8 @@
       <c r="D12" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>167</v>
+      <c r="E12" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>56</v>
@@ -10795,7 +11250,7 @@
         <v>75</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>31</v>
@@ -10830,7 +11285,7 @@
         <v>47</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>604</v>
+        <v>541</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>31</v>
@@ -10865,7 +11320,7 @@
         <v>65</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>605</v>
+        <v>542</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>31</v>
@@ -10900,7 +11355,7 @@
         <v>75</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>31</v>
@@ -10935,7 +11390,7 @@
         <v>323</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>31</v>
@@ -10972,7 +11427,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>31</v>
@@ -11009,7 +11464,7 @@
         <v>42</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>31</v>
@@ -11046,7 +11501,7 @@
         <v>42</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>31</v>
@@ -11083,7 +11538,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>31</v>
@@ -11122,7 +11577,7 @@
         <v>165</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>31</v>
@@ -11157,7 +11612,7 @@
         <v>47</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>567</v>
+        <v>504</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>31</v>
@@ -11192,7 +11647,7 @@
         <v>70</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>572</v>
+        <v>509</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>31</v>
@@ -11227,7 +11682,7 @@
         <v>47</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>568</v>
+        <v>505</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>31</v>
@@ -11250,8 +11705,8 @@
       <c r="D25" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="E25" s="45" t="s">
-        <v>167</v>
+      <c r="E25" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>56</v>
@@ -11266,7 +11721,7 @@
         <v>75</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="K25" s="31" t="s">
         <v>31</v>
@@ -11301,7 +11756,7 @@
         <v>47</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>31</v>
@@ -11336,7 +11791,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>31</v>
@@ -11406,7 +11861,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>573</v>
+        <v>510</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>31</v>
@@ -11480,7 +11935,7 @@
         <v>95</v>
       </c>
       <c r="J31" s="44" t="s">
-        <v>573</v>
+        <v>510</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>31</v>
@@ -11517,7 +11972,7 @@
         <v>42</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>31</v>
@@ -11556,7 +12011,7 @@
         <v>165</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>575</v>
+        <v>512</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>31</v>
@@ -11595,7 +12050,7 @@
         <v>102</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>31</v>
@@ -11632,7 +12087,7 @@
         <v>36</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>31</v>
@@ -11671,7 +12126,7 @@
         <v>42</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>577</v>
+        <v>514</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>31</v>
@@ -11708,7 +12163,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>577</v>
+        <v>514</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>31</v>
@@ -11745,7 +12200,7 @@
         <v>36</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>577</v>
+        <v>514</v>
       </c>
       <c r="K38" s="31" t="s">
         <v>31</v>
@@ -11784,7 +12239,7 @@
         <v>118</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>578</v>
+        <v>515</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>31</v>
@@ -11819,7 +12274,7 @@
         <v>47</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>579</v>
+        <v>516</v>
       </c>
       <c r="K40" s="31" t="s">
         <v>31</v>
@@ -11854,7 +12309,7 @@
         <v>47</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>580</v>
+        <v>517</v>
       </c>
       <c r="K41" s="31" t="s">
         <v>31</v>
@@ -11893,7 +12348,7 @@
         <v>75</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>581</v>
+        <v>518</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>31</v>
@@ -11928,7 +12383,7 @@
         <v>47</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>582</v>
+        <v>519</v>
       </c>
       <c r="K43" s="31" t="s">
         <v>31</v>
@@ -11963,7 +12418,7 @@
         <v>65</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>583</v>
+        <v>520</v>
       </c>
       <c r="K44" s="31" t="s">
         <v>31</v>
@@ -11998,7 +12453,7 @@
         <v>70</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>584</v>
+        <v>521</v>
       </c>
       <c r="K45" s="31" t="s">
         <v>31</v>
@@ -12033,7 +12488,7 @@
         <v>323</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>585</v>
+        <v>522</v>
       </c>
       <c r="K46" s="31" t="s">
         <v>31</v>
@@ -12070,7 +12525,7 @@
         <v>132</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
       <c r="K47" s="31" t="s">
         <v>31</v>
@@ -12109,7 +12564,7 @@
         <v>75</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>587</v>
+        <v>524</v>
       </c>
       <c r="K48" s="31" t="s">
         <v>31</v>
@@ -12148,7 +12603,7 @@
         <v>144</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="K49" s="31" t="s">
         <v>31</v>
@@ -12187,7 +12642,7 @@
         <v>165</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="K50" s="31" t="s">
         <v>31</v>
@@ -12222,7 +12677,7 @@
         <v>47</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="K51" s="31" t="s">
         <v>31</v>
@@ -12257,7 +12712,7 @@
         <v>47</v>
       </c>
       <c r="J52" s="44" t="s">
-        <v>590</v>
+        <v>527</v>
       </c>
       <c r="K52" s="31" t="s">
         <v>31</v>
@@ -12280,8 +12735,8 @@
       <c r="D53" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>167</v>
+      <c r="E53" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="F53" s="44" t="s">
         <v>56</v>
@@ -12296,7 +12751,7 @@
         <v>75</v>
       </c>
       <c r="J53" s="44" t="s">
-        <v>591</v>
+        <v>528</v>
       </c>
       <c r="K53" s="31" t="s">
         <v>31</v>
@@ -12331,7 +12786,7 @@
         <v>47</v>
       </c>
       <c r="J54" s="44" t="s">
-        <v>592</v>
+        <v>529</v>
       </c>
       <c r="K54" s="31" t="s">
         <v>31</v>
@@ -12366,7 +12821,7 @@
         <v>461</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>593</v>
+        <v>530</v>
       </c>
       <c r="K55" s="31" t="s">
         <v>31</v>
@@ -12413,7 +12868,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E56 E10:E16 E40:E46 E22:E29" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E29 E13:E16 E40:E46 E10:E11 E22:E24 E51:E52 E54:E56">
       <formula1>"I Agree, Disagree"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12423,7 +12878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -12549,7 +13004,7 @@
         <v>338</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>618</v>
+        <v>555</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>134</v>
@@ -12584,7 +13039,7 @@
         <v>342</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>618</v>
+        <v>555</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>134</v>
@@ -12623,7 +13078,7 @@
         <v>348</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>134</v>
@@ -12662,7 +13117,7 @@
         <v>354</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>134</v>
@@ -12699,7 +13154,7 @@
         <v>75</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>620</v>
+        <v>557</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>134</v>
@@ -12723,7 +13178,7 @@
         <v>362</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="26" t="s">
@@ -12733,10 +13188,10 @@
         <v>29</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>609</v>
+        <v>546</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>134</v>
@@ -12773,7 +13228,7 @@
         <v>368</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>616</v>
+        <v>553</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>134</v>
@@ -12813,7 +13268,7 @@
         <v>374</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>134</v>
@@ -12850,7 +13305,7 @@
         <v>378</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>610</v>
+        <v>547</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>134</v>
@@ -12884,10 +13339,10 @@
         <v>29</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>611</v>
+        <v>548</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>134</v>
@@ -12921,10 +13376,10 @@
         <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>134</v>
@@ -12961,7 +13416,7 @@
         <v>75</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>134</v>
@@ -12998,7 +13453,7 @@
         <v>430</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>134</v>
